--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/RPSG VENTURES Ltd/Pruned_Excel/Final_Parameters/RPSG VENTURES Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/RPSG VENTURES Ltd/Pruned_Excel/Final_Parameters/RPSG VENTURES Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>Balance Sheet of RPSG VENTURES(in Rs. Cr.)</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -1572,13 +1575,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1639,10 +1642,13 @@
       <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>15.35</v>
@@ -1668,23 +1674,20 @@
       <c r="K2">
         <v>4.13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4.13</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.99</v>
-      </c>
-      <c r="N2">
-        <v>3.14</v>
       </c>
       <c r="O2">
         <v>3.14</v>
       </c>
       <c r="P2">
+        <v>3.14</v>
+      </c>
+      <c r="Q2">
         <v>26.51</v>
-      </c>
-      <c r="Q2">
-        <v>1.19</v>
       </c>
       <c r="R2">
         <v>1.19</v>
@@ -1695,10 +1698,13 @@
       <c r="T2">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>15.35</v>
@@ -1724,23 +1730,20 @@
       <c r="K3">
         <v>60.31</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>60.31</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.85</v>
-      </c>
-      <c r="N3">
-        <v>58.46</v>
       </c>
       <c r="O3">
         <v>58.46</v>
       </c>
       <c r="P3">
+        <v>58.46</v>
+      </c>
+      <c r="Q3">
         <v>26.51</v>
-      </c>
-      <c r="Q3">
-        <v>22.05</v>
       </c>
       <c r="R3">
         <v>22.05</v>
@@ -1751,10 +1754,13 @@
       <c r="T3">
         <v>22.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>15.35</v>
@@ -1783,23 +1789,20 @@
       <c r="K4">
         <v>74.42</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>74.42</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-0.2</v>
-      </c>
-      <c r="N4">
-        <v>74.62</v>
       </c>
       <c r="O4">
         <v>74.62</v>
       </c>
       <c r="P4">
+        <v>74.62</v>
+      </c>
+      <c r="Q4">
         <v>26.51</v>
-      </c>
-      <c r="Q4">
-        <v>28.15</v>
       </c>
       <c r="R4">
         <v>28.15</v>
@@ -1810,10 +1813,13 @@
       <c r="T4">
         <v>28.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>15.35</v>
@@ -1839,23 +1845,20 @@
       <c r="K5">
         <v>3.07</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.07</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.92</v>
-      </c>
-      <c r="N5">
-        <v>2.15</v>
       </c>
       <c r="O5">
         <v>2.15</v>
       </c>
       <c r="P5">
+        <v>2.15</v>
+      </c>
+      <c r="Q5">
         <v>26.51</v>
-      </c>
-      <c r="Q5">
-        <v>0.8100000000000001</v>
       </c>
       <c r="R5">
         <v>0.8100000000000001</v>
@@ -1866,10 +1869,13 @@
       <c r="T5">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>16.55</v>
@@ -1895,23 +1901,20 @@
       <c r="K6">
         <v>7.43</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7.43</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4.91</v>
-      </c>
-      <c r="N6">
-        <v>2.52</v>
       </c>
       <c r="O6">
         <v>2.52</v>
       </c>
       <c r="P6">
+        <v>2.52</v>
+      </c>
+      <c r="Q6">
         <v>26.51</v>
-      </c>
-      <c r="Q6">
-        <v>0.95</v>
       </c>
       <c r="R6">
         <v>0.95</v>
@@ -1922,10 +1925,13 @@
       <c r="T6">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>15.35</v>
@@ -1954,23 +1960,20 @@
       <c r="K7">
         <v>3.7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3.7</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.84</v>
-      </c>
-      <c r="N7">
-        <v>2.86</v>
       </c>
       <c r="O7">
         <v>2.86</v>
       </c>
       <c r="P7">
+        <v>2.86</v>
+      </c>
+      <c r="Q7">
         <v>26.51</v>
-      </c>
-      <c r="Q7">
-        <v>1.08</v>
       </c>
       <c r="R7">
         <v>1.08</v>
@@ -1981,10 +1984,13 @@
       <c r="T7">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>15.35</v>
@@ -2013,23 +2019,20 @@
       <c r="K8">
         <v>3.25</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.25</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.79</v>
-      </c>
-      <c r="N8">
-        <v>2.46</v>
       </c>
       <c r="O8">
         <v>2.46</v>
       </c>
       <c r="P8">
+        <v>2.46</v>
+      </c>
+      <c r="Q8">
         <v>26.51</v>
-      </c>
-      <c r="Q8">
-        <v>0.93</v>
       </c>
       <c r="R8">
         <v>0.93</v>
@@ -2040,10 +2043,13 @@
       <c r="T8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>18.35</v>
@@ -2072,23 +2078,20 @@
       <c r="K9">
         <v>2.71</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.71</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.65</v>
-      </c>
-      <c r="N9">
-        <v>2.06</v>
       </c>
       <c r="O9">
         <v>2.06</v>
       </c>
       <c r="P9">
+        <v>2.06</v>
+      </c>
+      <c r="Q9">
         <v>26.51</v>
-      </c>
-      <c r="Q9">
-        <v>0.78</v>
       </c>
       <c r="R9">
         <v>0.78</v>
@@ -2099,10 +2102,13 @@
       <c r="T9">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>15.35</v>
@@ -2131,23 +2137,20 @@
       <c r="K10">
         <v>1.85</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.85</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.46</v>
-      </c>
-      <c r="N10">
-        <v>1.39</v>
       </c>
       <c r="O10">
         <v>1.39</v>
       </c>
       <c r="P10">
+        <v>1.39</v>
+      </c>
+      <c r="Q10">
         <v>26.51</v>
-      </c>
-      <c r="Q10">
-        <v>0.52</v>
       </c>
       <c r="R10">
         <v>0.52</v>
@@ -2158,10 +2161,13 @@
       <c r="T10">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>17.85</v>
@@ -2190,23 +2196,20 @@
       <c r="K11">
         <v>94.59</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>94.59</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-0.07000000000000001</v>
-      </c>
-      <c r="N11">
-        <v>94.66</v>
       </c>
       <c r="O11">
         <v>94.66</v>
       </c>
       <c r="P11">
+        <v>94.66</v>
+      </c>
+      <c r="Q11">
         <v>26.51</v>
-      </c>
-      <c r="Q11">
-        <v>35.71</v>
       </c>
       <c r="R11">
         <v>35.71</v>
@@ -2217,10 +2220,13 @@
       <c r="T11">
         <v>35.71</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>35.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>65.37</v>
@@ -2252,23 +2258,20 @@
       <c r="K12">
         <v>47.36</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>47.36</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>11.58</v>
-      </c>
-      <c r="N12">
-        <v>35.78</v>
       </c>
       <c r="O12">
         <v>35.78</v>
       </c>
       <c r="P12">
+        <v>35.78</v>
+      </c>
+      <c r="Q12">
         <v>26.51</v>
-      </c>
-      <c r="Q12">
-        <v>13.49</v>
       </c>
       <c r="R12">
         <v>13.49</v>
@@ -2279,10 +2282,13 @@
       <c r="T12">
         <v>13.49</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>27.87</v>
@@ -2311,23 +2317,20 @@
       <c r="K13">
         <v>8.800000000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8.800000000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2.24</v>
-      </c>
-      <c r="N13">
-        <v>6.56</v>
       </c>
       <c r="O13">
         <v>6.56</v>
       </c>
       <c r="P13">
+        <v>6.56</v>
+      </c>
+      <c r="Q13">
         <v>26.51</v>
-      </c>
-      <c r="Q13">
-        <v>2.48</v>
       </c>
       <c r="R13">
         <v>2.48</v>
@@ -2338,10 +2341,13 @@
       <c r="T13">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>27.88</v>
@@ -2370,23 +2376,20 @@
       <c r="K14">
         <v>14.05</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>14.05</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.52</v>
-      </c>
-      <c r="N14">
-        <v>10.53</v>
       </c>
       <c r="O14">
         <v>10.53</v>
       </c>
       <c r="P14">
+        <v>10.53</v>
+      </c>
+      <c r="Q14">
         <v>26.51</v>
-      </c>
-      <c r="Q14">
-        <v>3.97</v>
       </c>
       <c r="R14">
         <v>3.97</v>
@@ -2397,10 +2400,13 @@
       <c r="T14">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>64.95</v>
@@ -2429,23 +2435,20 @@
       <c r="K15">
         <v>162.3</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>162.3</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>40.91</v>
-      </c>
-      <c r="N15">
-        <v>121.39</v>
       </c>
       <c r="O15">
         <v>121.39</v>
       </c>
       <c r="P15">
+        <v>121.39</v>
+      </c>
+      <c r="Q15">
         <v>26.51</v>
-      </c>
-      <c r="Q15">
-        <v>45.79</v>
       </c>
       <c r="R15">
         <v>45.79</v>
@@ -2456,10 +2459,13 @@
       <c r="T15">
         <v>45.79</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>40.38</v>
@@ -2491,37 +2497,37 @@
       <c r="K16">
         <v>127.6</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>127.6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>35.8</v>
-      </c>
-      <c r="N16">
-        <v>91.8</v>
       </c>
       <c r="O16">
         <v>91.8</v>
       </c>
       <c r="P16">
+        <v>91.8</v>
+      </c>
+      <c r="Q16">
         <v>26.64</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>34.61</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>33.41</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>34.61</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>33.41</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>40.38</v>
@@ -2553,23 +2559,20 @@
       <c r="K17">
         <v>15.75</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15.75</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5.78</v>
-      </c>
-      <c r="N17">
-        <v>9.970000000000001</v>
       </c>
       <c r="O17">
         <v>9.970000000000001</v>
       </c>
       <c r="P17">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="Q17">
         <v>29.51</v>
-      </c>
-      <c r="Q17">
-        <v>3.38</v>
       </c>
       <c r="R17">
         <v>3.38</v>
@@ -2580,10 +2583,13 @@
       <c r="T17">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>40.37</v>
@@ -2615,37 +2621,37 @@
       <c r="K18">
         <v>11.45</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>11.45</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5.02</v>
-      </c>
-      <c r="N18">
-        <v>6.43</v>
       </c>
       <c r="O18">
         <v>6.43</v>
       </c>
       <c r="P18">
+        <v>6.43</v>
+      </c>
+      <c r="Q18">
         <v>29.51</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.18</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.3</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.18</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>40.38</v>
@@ -2677,37 +2683,37 @@
       <c r="K19">
         <v>12.61</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>12.61</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>4.61</v>
-      </c>
-      <c r="N19">
-        <v>8</v>
       </c>
       <c r="O19">
         <v>8</v>
       </c>
       <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
         <v>26.64</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2.71</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2.71</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>40.38</v>
@@ -2739,23 +2745,20 @@
       <c r="K20">
         <v>10.74</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10.74</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3.16</v>
-      </c>
-      <c r="N20">
-        <v>7.58</v>
       </c>
       <c r="O20">
         <v>7.58</v>
       </c>
       <c r="P20">
+        <v>7.58</v>
+      </c>
+      <c r="Q20">
         <v>29.51</v>
-      </c>
-      <c r="Q20">
-        <v>2.57</v>
       </c>
       <c r="R20">
         <v>2.57</v>
@@ -2766,10 +2769,13 @@
       <c r="T20">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>40.37</v>
@@ -2802,22 +2808,22 @@
         <v>139.69</v>
       </c>
       <c r="L21">
+        <v>-48.03</v>
+      </c>
+      <c r="M21">
         <v>91.66</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>39.81</v>
-      </c>
-      <c r="N21">
-        <v>51.85</v>
       </c>
       <c r="O21">
         <v>51.85</v>
       </c>
       <c r="P21">
+        <v>51.85</v>
+      </c>
+      <c r="Q21">
         <v>29.51</v>
-      </c>
-      <c r="Q21">
-        <v>17.57</v>
       </c>
       <c r="R21">
         <v>17.57</v>
@@ -2828,10 +2834,13 @@
       <c r="T21">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>40.38</v>
@@ -2863,23 +2872,20 @@
       <c r="K22">
         <v>16.38</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>16.38</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4.43</v>
-      </c>
-      <c r="N22">
-        <v>11.95</v>
       </c>
       <c r="O22">
         <v>11.95</v>
       </c>
       <c r="P22">
+        <v>11.95</v>
+      </c>
+      <c r="Q22">
         <v>29.51</v>
-      </c>
-      <c r="Q22">
-        <v>4.05</v>
       </c>
       <c r="R22">
         <v>4.05</v>
@@ -2890,10 +2896,13 @@
       <c r="T22">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>40.37</v>
@@ -2925,23 +2934,20 @@
       <c r="K23">
         <v>12.64</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>12.64</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3.15</v>
-      </c>
-      <c r="N23">
-        <v>9.49</v>
       </c>
       <c r="O23">
         <v>9.49</v>
       </c>
       <c r="P23">
+        <v>9.49</v>
+      </c>
+      <c r="Q23">
         <v>29.51</v>
-      </c>
-      <c r="Q23">
-        <v>3.21</v>
       </c>
       <c r="R23">
         <v>3.21</v>
@@ -2952,10 +2958,13 @@
       <c r="T23">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>40.37</v>
@@ -2987,23 +2996,20 @@
       <c r="K24">
         <v>4.18</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>4.18</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.84</v>
-      </c>
-      <c r="N24">
-        <v>1.34</v>
       </c>
       <c r="O24">
         <v>1.34</v>
       </c>
       <c r="P24">
+        <v>1.34</v>
+      </c>
+      <c r="Q24">
         <v>33.09</v>
-      </c>
-      <c r="Q24">
-        <v>0.41</v>
       </c>
       <c r="R24">
         <v>0.41</v>
@@ -3014,10 +3020,13 @@
       <c r="T24">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>40.38</v>
@@ -3049,23 +3058,20 @@
       <c r="K25">
         <v>7.28</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>7.28</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.79</v>
-      </c>
-      <c r="N25">
-        <v>5.49</v>
       </c>
       <c r="O25">
         <v>5.49</v>
       </c>
       <c r="P25">
+        <v>5.49</v>
+      </c>
+      <c r="Q25">
         <v>33.09</v>
-      </c>
-      <c r="Q25">
-        <v>1.66</v>
       </c>
       <c r="R25">
         <v>1.66</v>
@@ -3076,10 +3082,13 @@
       <c r="T25">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>40.37</v>
@@ -3111,23 +3120,20 @@
       <c r="K26">
         <v>138.34</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>138.34</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>38.04</v>
-      </c>
-      <c r="N26">
-        <v>100.3</v>
       </c>
       <c r="O26">
         <v>100.3</v>
       </c>
       <c r="P26">
+        <v>100.3</v>
+      </c>
+      <c r="Q26">
         <v>33.09</v>
-      </c>
-      <c r="Q26">
-        <v>32.77</v>
       </c>
       <c r="R26">
         <v>32.77</v>
@@ -3136,6 +3142,9 @@
         <v>32.77</v>
       </c>
       <c r="T26">
+        <v>32.77</v>
+      </c>
+      <c r="U26">
         <v>32.77</v>
       </c>
     </row>
@@ -3154,58 +3163,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18">
